--- a/medicine/Sexualité et sexologie/Contagious_Diseases_Acts/Contagious_Diseases_Acts.xlsx
+++ b/medicine/Sexualité et sexologie/Contagious_Diseases_Acts/Contagious_Diseases_Acts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Contagious Diseases Acts (Lois sur les maladies contagieuses) sont une série des lois britanniques votées en 1864 (27 &amp; 28 Vict. c. 85), puis modifiée en 1866 (29 &amp; 30 Vict. c. 35) et 1869 (32 &amp; 33 Vict. c. 96), destinées au départ à lutter contre les maladies vénériennes dans les villes de garnison. Elles servaient surtout comme moyen de contrôle des prostituées qui devaient se soumettre à des examens réguliers et étaient enfermées en cas d'infection. Les clients par contre n'étaient soumis à aucun contrôle.
 Leur abrogation, obtenue en 1886, fut un des éléments de la lutte féministe et abolitionniste, principalement de Josephine Butler.
